--- a/cfs_3_0.65.xlsx
+++ b/cfs_3_0.65.xlsx
@@ -2832,7 +2832,7 @@
         <v>3</v>
       </c>
       <c r="X31" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -3203,7 +3203,7 @@
         <v>3</v>
       </c>
       <c r="U36" t="n">
-        <v>63.7</v>
+        <v>63</v>
       </c>
       <c r="V36" t="n">
         <v>5</v>
@@ -3288,7 +3288,7 @@
         <v>3</v>
       </c>
       <c r="X37" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -3495,7 +3495,7 @@
         <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.4</v>
+        <v>56</v>
       </c>
       <c r="R40" t="n">
         <v>51</v>
@@ -3665,7 +3665,7 @@
         <v>3</v>
       </c>
       <c r="W42" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X42" t="n">
         <v>3</v>
@@ -3890,7 +3890,7 @@
         <v>71</v>
       </c>
       <c r="V45" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="W45" t="n">
         <v>3</v>
@@ -3963,7 +3963,7 @@
         <v>4</v>
       </c>
       <c r="U46" t="n">
-        <v>68.40000000000001</v>
+        <v>68</v>
       </c>
       <c r="V46" t="n">
         <v>4</v>
@@ -4179,7 +4179,7 @@
         <v>2</v>
       </c>
       <c r="Q49" t="n">
-        <v>58.2</v>
+        <v>58</v>
       </c>
       <c r="R49" t="n">
         <v>51</v>
@@ -4574,7 +4574,7 @@
         <v>61</v>
       </c>
       <c r="V54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="W54" t="n">
         <v>3</v>
@@ -4805,7 +4805,7 @@
         <v>3</v>
       </c>
       <c r="W57" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X57" t="n">
         <v>3</v>
@@ -5486,7 +5486,7 @@
         <v>51</v>
       </c>
       <c r="V66" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="W66" t="n">
         <v>3</v>
@@ -5717,7 +5717,7 @@
         <v>5</v>
       </c>
       <c r="W69" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X69" t="n">
         <v>3</v>
@@ -7918,13 +7918,13 @@
         <v>61</v>
       </c>
       <c r="V98" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="W98" t="n">
         <v>3</v>
       </c>
       <c r="X98" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
